--- a/Titus/Gurobi code/Final/Input/AH-Zaterdag.xlsx
+++ b/Titus/Gurobi code/Final/Input/AH-Zaterdag.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenten\Werk\IntegrativePractical5\Titus\Gurobi code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenten\Werk\IntegrativePractical5\Titus\Gurobi code\Final\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8974A382-32C6-4DED-A5BB-2D2D6324E7BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1044E111-DC15-4B20-8E08-1DF871D77433}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{D6CD85AD-E8EE-4875-A18D-825A3656BB16}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{D6CD85AD-E8EE-4875-A18D-825A3656BB16}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -153,11 +153,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -474,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305A69FC-E517-4296-8547-C4B68D684B59}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,442 +483,442 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
-        <v>3804.556826248127</v>
-      </c>
-      <c r="C1" s="3">
-        <v>2783.8220679864339</v>
-      </c>
-      <c r="D1" s="3">
-        <v>2505.43986118779</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="1">
+        <v>6256.4467229276761</v>
+      </c>
+      <c r="C1" s="1">
+        <v>4577.8878460446413</v>
+      </c>
+      <c r="D1" s="1">
+        <v>4120.0990614401771</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>4546.9093777111757</v>
-      </c>
-      <c r="C2" s="3">
-        <v>2505.43986118779</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2876.6161369193151</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="B2" s="1">
+        <v>7477.2168152062468</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4120.0990614401771</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4730.484107579462</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>4825.2915845098187</v>
-      </c>
-      <c r="C3" s="3">
-        <v>3572.5716539159239</v>
-      </c>
-      <c r="D3" s="3">
-        <v>2691.0279990535528</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2180.6606199227072</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2041.469516523385</v>
+      <c r="B3" s="1">
+        <v>7935.0055998107109</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5874.9560690906228</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4425.2915845098196</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3586.0121460683022</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3357.1177537660701</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <v>3572.5716539159239</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2551.8368956542308</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1391.911033993217</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="B4" s="1">
+        <v>5874.9560690906228</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4196.3971922075871</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2288.9439230223211</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <v>4686.1004811104976</v>
-      </c>
-      <c r="C5" s="3">
-        <v>3154.998343717959</v>
-      </c>
-      <c r="D5" s="3">
-        <v>927.94068932881135</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="B5" s="1">
+        <v>7706.1112075084784</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5188.2728921839262</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1525.9626153482141</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
-        <v>4593.306412177616</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3201.3953781843989</v>
-      </c>
-      <c r="D6" s="3">
-        <v>649.55848253016791</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="B6" s="1">
+        <v>7553.5149459736576</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5264.571022951337</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1068.173830743749</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
-        <v>4454.1153087782941</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2923.0131713857559</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="B7" s="1">
+        <v>7324.6205536714251</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4806.7822383468729</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
-        <v>3758.1597917816862</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1855.8813786576229</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="B8" s="1">
+        <v>6180.1485921602653</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3051.9252306964272</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
-        <v>2923.0131713857559</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="B9" s="1">
+        <v>4806.7822383468729</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>2830.2191024528752</v>
+      <c r="B10" s="1">
+        <v>4654.1859768120512</v>
       </c>
       <c r="C10" s="1">
-        <v>2691.0279990535528</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+        <v>4425.2915845098196</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
-        <v>4268.5271709125318</v>
-      </c>
-      <c r="C11" s="3">
-        <v>3526.1746194494831</v>
-      </c>
-      <c r="D11" s="3">
-        <v>3201.3953781843989</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="B11" s="1">
+        <v>7019.4280306017827</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5798.657938323212</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5264.571022951337</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
-        <v>2598.2339301206721</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="B12" s="1">
+        <v>4272.6953229749979</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
-        <v>4454.1153087782941</v>
-      </c>
-      <c r="C13" s="3">
-        <v>3479.7775849830432</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1809.4843441911819</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="B13" s="1">
+        <v>7324.6205536714251</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5722.3598075558011</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2975.6270999290159</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
-        <v>4454.1153087782941</v>
-      </c>
-      <c r="C14" s="3">
-        <v>3201.3953781843989</v>
-      </c>
-      <c r="D14" s="3">
-        <v>2551.8368956542308</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="B14" s="1">
+        <v>7324.6205536714251</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5264.571022951337</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4196.3971922075871</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
-        <v>3850.9538607145669</v>
-      </c>
-      <c r="C15" s="3">
-        <v>2969.4102058521962</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="B15" s="1">
+        <v>6332.7448536950869</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4883.0803691142837</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
-        <v>2691.0279990535528</v>
-      </c>
-      <c r="C16" s="3">
-        <v>2087.866550989826</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1855.8813786576229</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="B16" s="1">
+        <v>4425.2915845098196</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3433.41588453348</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3051.9252306964272</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
-        <v>4778.8945500433783</v>
-      </c>
-      <c r="C17" s="3">
-        <v>2505.43986118779</v>
-      </c>
-      <c r="D17" s="3">
-        <v>974.33772379525192</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="B17" s="1">
+        <v>7858.7074690433001</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4120.0990614401771</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1602.260746115624</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
-        <v>2830.2191024528752</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="B18" s="1">
+        <v>4654.1859768120512</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
-        <v>3850.9538607145669</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1345.5139995267759</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="B19" s="1">
+        <v>6332.7448536950869</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2212.6457922549098</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
-        <v>4546.9093777111757</v>
-      </c>
-      <c r="C20" s="3">
-        <v>3386.9835160501621</v>
-      </c>
-      <c r="D20" s="3">
-        <v>2319.8517233220282</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="B20" s="1">
+        <v>7477.2168152062468</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5569.7635460209794</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3814.9065383705338</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
-        <v>3711.7627573152449</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="B21" s="1">
+        <v>6103.8504613928544</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="3">
-        <v>4778.8945500433783</v>
-      </c>
-      <c r="C22" s="3">
-        <v>3108.6013092515182</v>
-      </c>
-      <c r="D22" s="3">
-        <v>2227.057654389147</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1623.8962063254201</v>
-      </c>
-      <c r="F22" s="3"/>
+      <c r="B22" s="1">
+        <v>7858.7074690433001</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5111.9747614165153</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3662.310276835713</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2670.4345768593739</v>
+      </c>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="3">
-        <v>3758.1597917816862</v>
-      </c>
-      <c r="C23" s="3">
-        <v>2830.2191024528752</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="B23" s="1">
+        <v>6180.1485921602653</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4654.1859768120512</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="3">
-        <v>4500.5123432447353</v>
-      </c>
-      <c r="C24" s="3">
-        <v>3201.3953781843989</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="B24" s="1">
+        <v>7400.918684438836</v>
+      </c>
+      <c r="C24" s="1">
+        <v>5264.571022951337</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="3">
-        <v>4593.306412177616</v>
-      </c>
-      <c r="C25" s="3">
-        <v>3201.3953781843989</v>
-      </c>
-      <c r="D25" s="3">
-        <v>2459.0428267213501</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="B25" s="1">
+        <v>7553.5149459736576</v>
+      </c>
+      <c r="C25" s="1">
+        <v>5264.571022951337</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4043.8009306727658</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="3">
-        <v>4361.3212398454134</v>
-      </c>
-      <c r="C26" s="3">
-        <v>3062.2042747850769</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1763.087309724742</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="B26" s="1">
+        <v>7172.0242921366043</v>
+      </c>
+      <c r="C26" s="1">
+        <v>5035.6766306491054</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2899.328969161606</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="3">
-        <v>4175.7331019796511</v>
-      </c>
-      <c r="C27" s="3">
-        <v>2783.8220679864339</v>
-      </c>
-      <c r="D27" s="3">
-        <v>2227.057654389147</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1763.087309724742</v>
-      </c>
-      <c r="F27" s="3"/>
+      <c r="B27" s="1">
+        <v>6866.831769066961</v>
+      </c>
+      <c r="C27" s="1">
+        <v>4577.8878460446413</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3662.310276835713</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2899.328969161606</v>
+      </c>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="3">
-        <v>3990.1449641138888</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="B28" s="1">
+        <v>6561.6392459973194</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="3">
-        <v>3340.5864815837208</v>
-      </c>
-      <c r="C29" s="3">
-        <v>2876.6161369193151</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1299.116965060336</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="B29" s="1">
+        <v>5493.4654152535686</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4730.484107579462</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2136.347661487499</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Titus/Gurobi code/Final/Input/AH-Zaterdag.xlsx
+++ b/Titus/Gurobi code/Final/Input/AH-Zaterdag.xlsx
@@ -2,31 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenten\Werk\IntegrativePractical5\Titus\Gurobi code\Final\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1044E111-DC15-4B20-8E08-1DF871D77433}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0416E5B-933C-469B-BC79-9185BC4AA741}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{D6CD85AD-E8EE-4875-A18D-825A3656BB16}"/>
+    <workbookView xWindow="17790" yWindow="2820" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Saturday" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -153,15 +142,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -184,44 +172,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -271,9 +259,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -329,596 +317,756 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305A69FC-E517-4296-8547-C4B68D684B59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:D21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="5" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>6256.4467229276761</v>
-      </c>
-      <c r="C1" s="1">
-        <v>4577.8878460446413</v>
-      </c>
-      <c r="D1" s="1">
-        <v>4120.0990614401771</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>6257</v>
+      </c>
+      <c r="C1">
+        <v>4578</v>
+      </c>
+      <c r="D1">
+        <v>4121</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>7477.2168152062468</v>
-      </c>
-      <c r="C2" s="1">
-        <v>4120.0990614401771</v>
-      </c>
-      <c r="D2" s="1">
-        <v>4730.484107579462</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="B2">
+        <v>7478</v>
+      </c>
+      <c r="C2">
+        <v>4121</v>
+      </c>
+      <c r="D2">
+        <v>4731</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>7935.0055998107109</v>
-      </c>
-      <c r="C3" s="1">
-        <v>5874.9560690906228</v>
-      </c>
-      <c r="D3" s="1">
-        <v>4425.2915845098196</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3586.0121460683022</v>
-      </c>
-      <c r="F3" s="1">
-        <v>3357.1177537660701</v>
+      <c r="B3">
+        <v>7935</v>
+      </c>
+      <c r="C3">
+        <v>5875</v>
+      </c>
+      <c r="D3">
+        <v>4426</v>
+      </c>
+      <c r="E3">
+        <v>3587</v>
+      </c>
+      <c r="F3">
+        <v>3358</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>5874.9560690906228</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4196.3971922075871</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2288.9439230223211</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="B4">
+        <v>5875</v>
+      </c>
+      <c r="C4">
+        <v>4197</v>
+      </c>
+      <c r="D4">
+        <v>2290</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>7706.1112075084784</v>
-      </c>
-      <c r="C5" s="1">
-        <v>5188.2728921839262</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1525.9626153482141</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="B5">
+        <v>7706</v>
+      </c>
+      <c r="C5">
+        <v>5189</v>
+      </c>
+      <c r="D5">
+        <v>1527</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>7553.5149459736576</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5264.571022951337</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1068.173830743749</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="B6">
+        <v>7554</v>
+      </c>
+      <c r="C6">
+        <v>5265</v>
+      </c>
+      <c r="D6">
+        <v>1069</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>7324.6205536714251</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4806.7822383468729</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="B7">
+        <v>7325</v>
+      </c>
+      <c r="C7">
+        <v>4807</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>6180.1485921602653</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3051.9252306964272</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="B8">
+        <v>6181</v>
+      </c>
+      <c r="C8">
+        <v>3052</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>4806.7822383468729</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="B9">
+        <v>4807</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>4654.1859768120512</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4425.2915845098196</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="B10">
+        <v>4655</v>
+      </c>
+      <c r="C10">
+        <v>4426</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>7019.4280306017827</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5798.657938323212</v>
-      </c>
-      <c r="D11" s="1">
-        <v>5264.571022951337</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="B11">
+        <v>7020</v>
+      </c>
+      <c r="C11">
+        <v>5799</v>
+      </c>
+      <c r="D11">
+        <v>5265</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>4272.6953229749979</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="B12">
+        <v>4273</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>7324.6205536714251</v>
-      </c>
-      <c r="C13" s="1">
-        <v>5722.3598075558011</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2975.6270999290159</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="B13">
+        <v>7325</v>
+      </c>
+      <c r="C13">
+        <v>5723</v>
+      </c>
+      <c r="D13">
+        <v>2976</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>7324.6205536714251</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5264.571022951337</v>
-      </c>
-      <c r="D14" s="1">
-        <v>4196.3971922075871</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="B14">
+        <v>7325</v>
+      </c>
+      <c r="C14">
+        <v>5265</v>
+      </c>
+      <c r="D14">
+        <v>4197</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>6332.7448536950869</v>
-      </c>
-      <c r="C15" s="1">
-        <v>4883.0803691142837</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="B15">
+        <v>6333</v>
+      </c>
+      <c r="C15">
+        <v>4884</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>4425.2915845098196</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3433.41588453348</v>
-      </c>
-      <c r="D16" s="1">
-        <v>3051.9252306964272</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="B16">
+        <v>4426</v>
+      </c>
+      <c r="C16">
+        <v>3434</v>
+      </c>
+      <c r="D16">
+        <v>3052</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>7858.7074690433001</v>
-      </c>
-      <c r="C17" s="1">
-        <v>4120.0990614401771</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1602.260746115624</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="B17">
+        <v>7859</v>
+      </c>
+      <c r="C17">
+        <v>4121</v>
+      </c>
+      <c r="D17">
+        <v>1603</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
-        <v>4654.1859768120512</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="B18">
+        <v>4655</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
-        <v>6332.7448536950869</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2212.6457922549098</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="B19">
+        <v>6333</v>
+      </c>
+      <c r="C19">
+        <v>2213</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
-        <v>7477.2168152062468</v>
-      </c>
-      <c r="C20" s="1">
-        <v>5569.7635460209794</v>
-      </c>
-      <c r="D20" s="1">
-        <v>3814.9065383705338</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="B20">
+        <v>7478</v>
+      </c>
+      <c r="C20">
+        <v>5570</v>
+      </c>
+      <c r="D20">
+        <v>3815</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
-        <v>6103.8504613928544</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="B21">
+        <v>6104</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
-        <v>7858.7074690433001</v>
-      </c>
-      <c r="C22" s="1">
-        <v>5111.9747614165153</v>
-      </c>
-      <c r="D22" s="1">
-        <v>3662.310276835713</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2670.4345768593739</v>
-      </c>
-      <c r="F22" s="1"/>
+      <c r="B22">
+        <v>7859</v>
+      </c>
+      <c r="C22">
+        <v>5112</v>
+      </c>
+      <c r="D22">
+        <v>3663</v>
+      </c>
+      <c r="E22">
+        <v>2671</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
-        <v>6180.1485921602653</v>
-      </c>
-      <c r="C23" s="1">
-        <v>4654.1859768120512</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="B23">
+        <v>6181</v>
+      </c>
+      <c r="C23">
+        <v>4655</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
-        <v>7400.918684438836</v>
-      </c>
-      <c r="C24" s="1">
-        <v>5264.571022951337</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="B24">
+        <v>7401</v>
+      </c>
+      <c r="C24">
+        <v>5265</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
-        <v>7553.5149459736576</v>
-      </c>
-      <c r="C25" s="1">
-        <v>5264.571022951337</v>
-      </c>
-      <c r="D25" s="1">
-        <v>4043.8009306727658</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="B25">
+        <v>7554</v>
+      </c>
+      <c r="C25">
+        <v>5265</v>
+      </c>
+      <c r="D25">
+        <v>4044</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
-        <v>7172.0242921366043</v>
-      </c>
-      <c r="C26" s="1">
-        <v>5035.6766306491054</v>
-      </c>
-      <c r="D26" s="1">
-        <v>2899.328969161606</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="B26">
+        <v>7172</v>
+      </c>
+      <c r="C26">
+        <v>5036</v>
+      </c>
+      <c r="D26">
+        <v>2900</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
-        <v>6866.831769066961</v>
-      </c>
-      <c r="C27" s="1">
-        <v>4577.8878460446413</v>
-      </c>
-      <c r="D27" s="1">
-        <v>3662.310276835713</v>
-      </c>
-      <c r="E27" s="1">
-        <v>2899.328969161606</v>
-      </c>
-      <c r="F27" s="1"/>
+      <c r="B27">
+        <v>6867</v>
+      </c>
+      <c r="C27">
+        <v>4578</v>
+      </c>
+      <c r="D27">
+        <v>3663</v>
+      </c>
+      <c r="E27">
+        <v>2900</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
-        <v>6561.6392459973194</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="B28">
+        <v>6562</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
-        <v>5493.4654152535686</v>
-      </c>
-      <c r="C29" s="1">
-        <v>4730.484107579462</v>
-      </c>
-      <c r="D29" s="1">
-        <v>2136.347661487499</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="B29">
+        <v>5494</v>
+      </c>
+      <c r="C29">
+        <v>4731</v>
+      </c>
+      <c r="D29">
+        <v>2137</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
